--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s4_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.40927967474528</v>
+        <v>30.95601360621536</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5080001354217529</v>
+        <v>0.4089999198913574</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.40927967474529</v>
+        <v>30.95601360621536</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.32864898449878</v>
+        <v>33.15868643584631</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.43528232449521</v>
+        <v>34.77463816779863</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.93612771406939</v>
+        <v>32.46902814888764</v>
       </c>
     </row>
     <row r="8">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.66500000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60499999995398</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.5050000000248</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>188.4800000000215</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>199.3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>197.9800000000197</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>181.8749999998597</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>55.99500000002445</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>58.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>57.00500000002467</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>53.86000000002423</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>55.98000000002503</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>118.4699999999411</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>128.7149999999564</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>119.6649999999553</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>127.0699999999615</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>130.0449999998399</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>180.9549999998961</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>196.4799999999158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>190.1699999999127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>196.1299999999173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>196.4949999997297</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>180.954999999892</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>196.4799999999116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>190.1699999999085</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>196.1299999999131</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>196.4949999997254</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.5050000000539</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>188.480000000047</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>199.3</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.9800000000525</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>181.8749999997743</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42">
